--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\FilterDataProject\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA31192-2CB3-4563-9BED-574C64915F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94097105-CF1B-46DD-9D0F-48201A0AABE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="516" windowWidth="17280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,171 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>站址编码</t>
-  </si>
-  <si>
-    <t>建设方式</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>移动订单号</t>
-  </si>
-  <si>
-    <t>联通订单号</t>
-  </si>
-  <si>
-    <t>电信订单号</t>
-  </si>
-  <si>
-    <t>站址类型</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>开工时间</t>
-  </si>
-  <si>
-    <t>完工时间</t>
-  </si>
-  <si>
-    <t>内验时间</t>
-  </si>
-  <si>
-    <t>起租时间</t>
-  </si>
-  <si>
-    <t>是否共建共享工作流程</t>
-  </si>
-  <si>
-    <t>是否为同址新建</t>
-  </si>
-  <si>
-    <t>如同址新建，是否履行同址新建流程</t>
-  </si>
-  <si>
-    <t>工程资料全套资料齐全、规范</t>
-  </si>
-  <si>
-    <t>是否纳入现场抽查清单</t>
-  </si>
-  <si>
-    <t>施工现场是否符合建设标准强制性条文（抽查）</t>
-  </si>
-  <si>
-    <t>是否按时办理工程质量监督申报和竣工验收备案手续</t>
-  </si>
-  <si>
-    <t>其他情况核实</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>地市</t>
-  </si>
-  <si>
-    <t>区县</t>
-  </si>
-  <si>
-    <t>项目基础信息（后续新增需求请补充）</t>
-  </si>
-  <si>
-    <t>自查自纠责任人</t>
-  </si>
-  <si>
-    <t>自查自纠情况</t>
-  </si>
-  <si>
-    <t>备注说明</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>伊春</t>
-  </si>
-  <si>
-    <t>伊乌区域</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000351</t>
-  </si>
-  <si>
-    <t>230702900010001581</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>一般市区</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t/>
   </si>
   <si>
-    <t>1224061313775115</t>
-  </si>
-  <si>
-    <t>地面站</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊春傲城小区南新建铁塔类项目</t>
-  </si>
-  <si>
-    <t>宏站</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000352</t>
-  </si>
-  <si>
-    <t>乡镇</t>
-  </si>
-  <si>
-    <t>1224060413746878</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年乌带公路补点新建3新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000357</t>
-  </si>
-  <si>
-    <t>1224060413746876</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点1新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24A01HLYC011000358</t>
-  </si>
-  <si>
-    <t>1224060413746874</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点2新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -718,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -730,21 +571,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -759,12 +590,8 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
-      <c r="T1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="T1" s="17"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
@@ -772,130 +599,54 @@
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
       <c r="AB1" s="16"/>
-      <c r="AC1" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="AC1" s="17"/>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="17"/>
-      <c r="U2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
       <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>53874</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="8">
         <v>45526</v>
       </c>
@@ -903,13 +654,13 @@
         <v>45526</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -923,48 +674,20 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>53875</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="8">
         <v>45549</v>
       </c>
@@ -978,12 +701,9 @@
         <v>45728</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="7" t="b">
-        <f>ISNUMBER(Q4)</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -995,48 +715,20 @@
       <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>53876</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="8">
         <v>45545</v>
       </c>
@@ -1050,7 +742,7 @@
         <v>45709</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1064,53 +756,25 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>53877</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="8">
         <v>45545</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="13">
         <v>45663</v>
